--- a/src/hw4/miniMD/hw4.xlsx
+++ b/src/hw4/miniMD/hw4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkrsn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rkrsn/git/Parallel-Systems/src/hw4/miniMD/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Q5" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +88,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,8 +196,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -189,12 +209,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -202,15 +216,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -224,6 +248,505 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Pinned vs. Unpinned</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2160" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q5'!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pinned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q5'!$A$19:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Config. A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config. B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q5'!$B$19:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.83</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Q5'!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unpinned</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Q5'!$A$19:$A$20</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Config. A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Config. B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Q5'!$C$19:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>188.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2110121184"/>
+        <c:axId val="-2110118928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2110121184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Configurations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2110118928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2110118928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wall Clock Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2110121184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="95000"/>
+          <a:lumOff val="5000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -468,11 +991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2108684496"/>
-        <c:axId val="-2108355536"/>
+        <c:axId val="2143525408"/>
+        <c:axId val="2143504560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2108684496"/>
+        <c:axId val="2143525408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2100.0"/>
@@ -573,13 +1096,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108355536"/>
+        <c:crossAx val="2143504560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108355536"/>
+        <c:axId val="2143504560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="700.0"/>
@@ -693,586 +1216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2108684496"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.789346021813468"/>
-          <c:y val="0.0384271625243709"/>
-          <c:w val="0.180097331583552"/>
-          <c:h val="0.174769612131817"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:sysClr>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" charset="0"/>
-              <a:ea typeface="Helvetica" charset="0"/>
-              <a:cs typeface="Helvetica" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:noFill/>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1200">
-          <a:solidFill>
-            <a:schemeClr val="tx1">
-              <a:lumMod val="75000"/>
-              <a:lumOff val="25000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:latin typeface="Helvetica" charset="0"/>
-          <a:ea typeface="Helvetica" charset="0"/>
-          <a:cs typeface="Helvetica" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" charset="0"/>
-                <a:ea typeface="Helvetica" charset="0"/>
-                <a:cs typeface="Helvetica" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Frequency vs. Wall Clock Time</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Helvetica" charset="0"/>
-              <a:ea typeface="Helvetica" charset="0"/>
-              <a:cs typeface="Helvetica" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Config. A</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Q6'!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Q6'!$B$3:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>34.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.17</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.86</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.87</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Config. B</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Q6'!$A$3:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>800.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1200.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1500.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Q6'!$B$11:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>40.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.89</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.24</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.53</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.93</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="-2108799136"/>
-        <c:axId val="-2088502560"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="-2108799136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2100.0"/>
-          <c:min val="800.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>Frequency (MHz)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="1200">
-                  <a:effectLst/>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" charset="0"/>
-                  <a:ea typeface="Helvetica" charset="0"/>
-                  <a:cs typeface="Helvetica" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="95000"/>
-                <a:lumOff val="5000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" charset="0"/>
-                <a:ea typeface="Helvetica" charset="0"/>
-                <a:cs typeface="Helvetica" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2088502560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="200.0"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="-2088502560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="Helvetica" charset="0"/>
-                    <a:ea typeface="Helvetica" charset="0"/>
-                    <a:cs typeface="Helvetica" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> (seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="Helvetica" charset="0"/>
-                  <a:ea typeface="Helvetica" charset="0"/>
-                  <a:cs typeface="Helvetica" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="75000"/>
-                    <a:lumOff val="25000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Helvetica" charset="0"/>
-                <a:ea typeface="Helvetica" charset="0"/>
-                <a:cs typeface="Helvetica" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2108799136"/>
+        <c:crossAx val="2143525408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1408,7 +1352,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Frequency vs. Stall Cycles (Mean)</a:t>
+              <a:t>Frequency vs. Wall Clock Time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1505,24 +1449,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Q6'!$C$3:$C$7</c:f>
+              <c:f>'Q6'!$B$3:$B$7</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.05E10</c:v>
+                  <c:v>34.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.73E9</c:v>
+                  <c:v>27.63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.32E9</c:v>
+                  <c:v>23.17</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.99E9</c:v>
+                  <c:v>18.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.78E9</c:v>
+                  <c:v>14.87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1585,24 +1529,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Q6'!$C$11:$C$15</c:f>
+              <c:f>'Q6'!$B$11:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.869E10</c:v>
+                  <c:v>40.33</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.55E10</c:v>
+                  <c:v>33.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.363E10</c:v>
+                  <c:v>28.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.19E10</c:v>
+                  <c:v>23.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.04E10</c:v>
+                  <c:v>19.93</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,11 +1561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125921088"/>
-        <c:axId val="-2129593840"/>
+        <c:axId val="2144614336"/>
+        <c:axId val="2144619440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125921088"/>
+        <c:axId val="2144614336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2100.0"/>
@@ -1649,9 +1593,14 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Frequency</a:t>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Frequency (MHz)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1722,12 +1671,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129593840"/>
+        <c:crossAx val="2144619440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="200.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129593840"/>
+        <c:axId val="2144619440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,8 +1718,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>No. Stall Cycles</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1803,7 +1758,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1840,7 +1795,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2125921088"/>
+        <c:crossAx val="2144614336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2185,11 +2140,579 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2087509520"/>
-        <c:axId val="-2112818640"/>
+        <c:axId val="2144665936"/>
+        <c:axId val="2144671504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2087509520"/>
+        <c:axId val="2144665936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2100.0"/>
+          <c:min val="800.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" charset="0"/>
+                    <a:ea typeface="Helvetica" charset="0"/>
+                    <a:cs typeface="Helvetica" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" charset="0"/>
+                  <a:ea typeface="Helvetica" charset="0"/>
+                  <a:cs typeface="Helvetica" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" charset="0"/>
+                <a:ea typeface="Helvetica" charset="0"/>
+                <a:cs typeface="Helvetica" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144671504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2144671504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica" charset="0"/>
+                    <a:ea typeface="Helvetica" charset="0"/>
+                    <a:cs typeface="Helvetica" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>No. Stall Cycles</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Helvetica" charset="0"/>
+                  <a:ea typeface="Helvetica" charset="0"/>
+                  <a:cs typeface="Helvetica" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="85000"/>
+                <a:lumOff val="15000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" charset="0"/>
+                <a:ea typeface="Helvetica" charset="0"/>
+                <a:cs typeface="Helvetica" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2144665936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.789346021813468"/>
+          <c:y val="0.0384271625243709"/>
+          <c:w val="0.180097331583552"/>
+          <c:h val="0.174769612131817"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" charset="0"/>
+              <a:ea typeface="Helvetica" charset="0"/>
+              <a:cs typeface="Helvetica" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:latin typeface="Helvetica" charset="0"/>
+          <a:ea typeface="Helvetica" charset="0"/>
+          <a:cs typeface="Helvetica" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Helvetica" charset="0"/>
+                <a:ea typeface="Helvetica" charset="0"/>
+                <a:cs typeface="Helvetica" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frequency vs. Stall Cycles (Mean)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Helvetica" charset="0"/>
+              <a:ea typeface="Helvetica" charset="0"/>
+              <a:cs typeface="Helvetica" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Config. A</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q6'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q6'!$C$3:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.05E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.73E9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.32E9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.99E9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.78E9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Config. B</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Q6'!$A$3:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Q6'!$C$11:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.869E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.55E10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.363E10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.19E10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.04E10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2143620688"/>
+        <c:axId val="2143626752"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2143620688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2100.0"/>
@@ -2323,13 +2846,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112818640"/>
+        <c:crossAx val="2143626752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="200.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2112818640"/>
+        <c:axId val="2143626752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2442,7 +2965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087509520"/>
+        <c:crossAx val="2143620688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2702,8 +3225,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2730,8 +3293,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2832,7 +3395,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2864,10 +3427,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2907,23 +3470,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3028,8 +3590,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3161,20 +3723,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3188,17 +3749,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -4766,7 +5316,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6165,7 +7266,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6178,13 +7279,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6199,7 +7300,7 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6210,7 +7311,7 @@
       <c r="B3" s="2">
         <v>34.35</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>10500000000</v>
       </c>
       <c r="D3" s="2"/>
@@ -6225,7 +7326,7 @@
       <c r="B4" s="2">
         <v>27.63</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>8730000000</v>
       </c>
       <c r="D4" s="2"/>
@@ -6240,7 +7341,7 @@
       <c r="B5" s="2">
         <v>23.17</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>7320000000</v>
       </c>
       <c r="D5" s="2"/>
@@ -6255,7 +7356,7 @@
       <c r="B6" s="2">
         <v>18.86</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>5990000000</v>
       </c>
       <c r="D6" s="2"/>
@@ -6264,50 +7365,50 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>2000</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>14.87</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>4780000000</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <v>826.03</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6318,7 +7419,7 @@
       <c r="B11" s="2">
         <v>40.33</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>28690000000</v>
       </c>
       <c r="D11" s="2"/>
@@ -6333,7 +7434,7 @@
       <c r="B12" s="2">
         <v>33.89</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>25500000000</v>
       </c>
       <c r="D12" s="2"/>
@@ -6348,7 +7449,7 @@
       <c r="B13" s="2">
         <v>28.24</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>23630000000</v>
       </c>
       <c r="D13" s="2"/>
@@ -6363,7 +7464,7 @@
       <c r="B14" s="2">
         <v>23.53</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>21900000000</v>
       </c>
       <c r="D14" s="2"/>
@@ -6378,7 +7479,7 @@
       <c r="B15" s="2">
         <v>19.93</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>20400000000</v>
       </c>
       <c r="D15" s="2"/>
@@ -6399,7 +7500,10 @@
         <v>6</v>
       </c>
       <c r="B19">
-        <v>35.83</v>
+        <v>15.53</v>
+      </c>
+      <c r="C19">
+        <v>188.34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6407,6 +7511,9 @@
         <v>11</v>
       </c>
       <c r="B20">
+        <v>35.83</v>
+      </c>
+      <c r="C20">
         <v>53.32</v>
       </c>
     </row>
@@ -6416,6 +7523,8 @@
     <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6437,17 +7546,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="12" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="G1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -6462,13 +7571,13 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>2</v>
       </c>
     </row>
@@ -6479,17 +7588,17 @@
       <c r="B3" s="2">
         <v>34.35</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>10500000000</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
         <v>808.4</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>12</v>
       </c>
     </row>
@@ -6500,17 +7609,17 @@
       <c r="B4" s="2">
         <v>27.63</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="12">
         <v>8730000000</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
         <v>814.7</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>4</v>
       </c>
     </row>
@@ -6521,17 +7630,17 @@
       <c r="B5" s="2">
         <v>23.17</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>7320000000</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
         <v>819.79</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>32</v>
       </c>
     </row>
@@ -6542,7 +7651,7 @@
       <c r="B6" s="2">
         <v>18.86</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="12">
         <v>5990000000</v>
       </c>
       <c r="D6" s="2"/>
@@ -6551,71 +7660,71 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>2000</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>14.87</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="13">
         <v>4780000000</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="2">
         <v>826.03</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="G8" s="7" t="s">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="G9" s="9" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="6">
         <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6626,17 +7735,17 @@
       <c r="B11" s="2">
         <v>40.33</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>28690000000</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2">
         <v>1087.0899999999999</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="9">
         <v>64</v>
       </c>
     </row>
@@ -6647,7 +7756,7 @@
       <c r="B12" s="2">
         <v>33.89</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="12">
         <v>25500000000</v>
       </c>
       <c r="D12" s="2"/>
@@ -6662,7 +7771,7 @@
       <c r="B13" s="2">
         <v>28.24</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>23630000000</v>
       </c>
       <c r="D13" s="2"/>
@@ -6677,7 +7786,7 @@
       <c r="B14" s="2">
         <v>23.53</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="12">
         <v>21900000000</v>
       </c>
       <c r="D14" s="2"/>
@@ -6692,7 +7801,7 @@
       <c r="B15" s="2">
         <v>19.93</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>20400000000</v>
       </c>
       <c r="D15" s="2"/>
